--- a/Output_testing/R1_201907/Country/HKD/MN/IRELAND_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/IRELAND_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>492.430702</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>22.94910085524932</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>503.605016</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>24.64577734614971</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>604.384797</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>24.67634928964451</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>299.942207</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>26.46032435796278</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>4.975527239678423</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>144.482608</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.733426509262316</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>115.723458</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>5.663356179904505</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>145.64594</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>5.946559387162425</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>75.3857</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>6.650381398147394</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-6.462193277850092</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>70.202817</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>3.271712184297581</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>60.79959</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.975453202946633</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>39.433429</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.610022410428695</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>74.936041</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.610713346393419</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>160.4415179197332</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>112.810193</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.257374258230431</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>160.396586</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>7.849601215327358</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>157.056939</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>6.412457600462098</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>74.307177</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.555236174362589</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-25.40098344133066</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>271.044804</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>12.63169521726386</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>223.175344</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>10.92191233729564</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>428.711988</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>17.50382672273917</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>74.20135000000001</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.545900320053062</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-77.36569449365105</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>73.557902</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.428071614630043</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>95.113405</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.654726874809687</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>112.111432</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.577383264976847</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>69.73622899999999</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>6.151995937141219</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>28.38014632667125</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>94.24826400000001</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.392319380541312</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>110.291629</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>5.397529502522167</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>192.912086</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>7.87638279446983</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>62.050709</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>5.473994151085114</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-26.45214723791855</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>128.090322</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>5.969485058954265</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>127.725494</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>6.250720279861113</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>116.48309</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.755873128253254</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>59.038553</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>5.208267544703292</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-6.820283234140168</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>29.557616</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.377494757881142</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>40.247811</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.969675751950642</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>123.115</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>5.026646530280913</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>43.896394</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.872455414002243</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>85.30737145313556</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>NATURAL ABRASIVES, N.E.S. (INCLUDING INDUSTRIAL DIAMONDS)</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>122.618427</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>5.714474415397084</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>59.454259</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.909614445925847</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>48.635887</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.985748386757784</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>34.832864</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>3.072888237289009</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>10.96344668280023</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>606.707959</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>28.27484574829266</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>546.839824</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>26.76163286330669</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>480.756624</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>19.62875048482448</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>265.227312</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>23.39784311885987</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-5.144762672333759</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,495 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>3.167535</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>24.06679607507754</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>4.341439</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>31.91736554046494</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>3.105922</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>33.73464375332426</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>3.003915</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>46.16418409334527</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>17.16102686511281</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>4.173657</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>31.71126819634824</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>5.082392</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>37.36469941969349</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>2.863681</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>31.10356871748981</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1.029591</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>15.82276078545879</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>150.2323467507911</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.600212</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>12.15834264842914</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.469377</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>10.80255713042421</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.316055</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>14.29419237984121</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.802207</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>12.32832208267219</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>7.511968006690295</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>2.269996152394359</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.674372719197784</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.533112</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.790339680333958</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>7.339298681040875</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>5.447817053325599</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.5156500000000001</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.917886746670119</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.588728</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.328207025345017</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.622101243184339</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>5.014549659790765</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>10.82927160640592</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.5033713225083608</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>4.723633304006055</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>696.0426810318036</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>NAILS, SCREWS, NUTS, BOLTS, RIVETS AND THE LIKE, OF IRON, STEEL, COPPER OR ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.337270898789737</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.892469424991189</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.4782163331259169</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.72517394661923</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>813.5029206708122</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.3816302055885712</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.4612368570139276</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.2998156495532</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.559268636588917</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>38.28624388382331</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.500558601829953</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.5970024382960247</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.727472191843506</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.9495429939181116</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-41.50232430436552</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.3061287055063909</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.5916682354839577</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>2.981887</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>22.65625047487234</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>1.585458</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>11.65596073906704</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>0.685573</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>7.446278728795436</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>1.781597581075837</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-78.75843998790688</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1788,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>492.430702</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>23.090732863554</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>503.605016</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>24.81093636499934</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>604.384797</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>24.76945971872888</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>299.942207</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>26.61309342086822</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>4.975527239678423</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>144.482608</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.774982329914899</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>115.412749</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>5.686000496763601</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>145.64594</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>5.968997337347656</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>75.36409999999999</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>6.686860958783485</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-6.488994337271158</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>70.202817</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>3.291903788760854</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>60.79959</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.995392640227496</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>39.433429</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.616097453203899</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>74.936041</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.648880394892244</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>160.4415179197332</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>112.810193</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.289820517423727</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>160.396586</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>7.902203834302444</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>157.056939</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.436653508521921</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>74.307177</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.593082924611507</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-25.40098344133066</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>271.044804</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>12.70965262279352</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>223.175344</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>10.99510346858983</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>428.711988</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>17.56987331648943</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>74.20135000000001</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.583693169612971</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-77.36569449365105</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>73.557902</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.449228202439507</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>95.113405</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.685919647220929</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>112.058392</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.592481214893185</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>69.73622899999999</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>6.187514574086132</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>28.50562359518842</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>94.24826400000001</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.419426892025333</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>110.291629</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>5.43370002635382</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>192.912086</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>7.906102481649555</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>62.050709</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>5.505598334975605</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-26.45214723791855</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>128.040094</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>6.003970902647623</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>127.662756</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>6.289517408810792</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>116.363417</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.768913752334428</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>58.937091</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>5.229335092334009</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-6.872577336985186</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>29.557616</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.385996064761026</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>40.247811</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.982875161734927</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>123.115</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>5.045613404586195</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>43.896394</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.894813090980688</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>85.30737145313556</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>NATURAL ABRASIVES, N.E.S. (INCLUDING INDUSTRIAL DIAMONDS)</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>122.618427</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>5.749741700724007</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>59.454259</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.929112677220016</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>48.635887</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.993241143574215</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>34.832864</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>3.090629601683225</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>10.96344668280023</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>593.596755</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>27.83454411495551</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>533.611149</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>26.2892382737768</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>471.722416</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>19.33256666867064</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>258.843349</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>22.96649843717192</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-5.696959709172078</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2246,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1627.718832</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>29.5136839260558</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1115.747033</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>21.04136016203611</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>2035.571771</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>27.57949834016952</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>1179.561754</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>31.98099768921178</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>16.17439121953295</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>825.2280040000001</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>14.96297640487452</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>680.462441</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>12.83252822937979</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1111.537941</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>15.05997441877717</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>569.5871</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>15.44299284639644</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-12.91716740429454</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>603.034674</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>10.93418249822651</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>665.319667</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>12.54695761869252</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>732.679703</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>9.926910434033717</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>454.207042</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>12.31473834359818</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>35.5825460339338</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>303.035366</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>5.494616044683469</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>402.718525</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>7.594683452274026</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>440.05896</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.962258629148931</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>239.737724</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>6.499915389136032</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-12.2154679820474</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>96.80687399999999</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.755295463157429</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>345.132902</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.50870267180958</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>332.561744</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.505803331191842</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>173.611559</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.707062473305195</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-8.092676097067852</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>485.985899</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>8.811862303013571</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>721.266655</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>13.60203613530204</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>610.830134</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>8.275998373912664</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>149.556396</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.054864222804262</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-69.37905379266367</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>159.696851</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.895612123998839</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>138.463096</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.611211848130974</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>112.786537</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.528119103585745</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>137.177914</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.719251269183565</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>70.95295195548326</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>183.72876</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.331357015820386</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>241.938946</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>4.562615314621594</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>194.383324</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.633655387636358</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>114.081264</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.093040807735751</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-11.4074187419412</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>121.506371</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.203145013865683</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>35.385783</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.6673242076357414</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>54.885008</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.7436244737725783</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>66.208151</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.795075770266102</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>266.3853649390901</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>81.701752</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.481410448369745</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>58.924405</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.111228254495104</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>110.662545</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.499341619699851</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>60.801906</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.648498358557048</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-7.82595144171686</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1026.689313</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>18.61585875793405</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>897.277945</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>16.92135210562252</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1644.78489</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>22.28481588807163</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>543.789878</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>14.74356282980565</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-37.72868146015905</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
